--- a/biology/Médecine/Princeton-Plainsboro_Teaching_Hospital/Princeton-Plainsboro_Teaching_Hospital.xlsx
+++ b/biology/Médecine/Princeton-Plainsboro_Teaching_Hospital/Princeton-Plainsboro_Teaching_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Princeton-Plainsboro Teaching Hospital (PPTH) est un hôpital universitaire fictif qui sert de cadre à la série américaine Dr House (House), créé en 2004.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Princeton Plainsboro est situé dans la ville de Princeton, dans le New Jersey.
 </t>
@@ -543,11 +557,48 @@
           <t>Personnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hôpital est administré par le Dr Eric Foreman, doyen de la faculté, ayant remplacé Lisa Cuddy depuis le début de la saison 8.
-Services médicaux
-Urgences : dirigé par le Dr Allison Cameron (saisons 4 et 5)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est administré par le Dr Eric Foreman, doyen de la faculté, ayant remplacé Lisa Cuddy depuis le début de la saison 8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Princeton-Plainsboro_Teaching_Hospital</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Princeton-Plainsboro_Teaching_Hospital</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Services médicaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Urgences : dirigé par le Dr Allison Cameron (saisons 4 et 5)
 Unité d'oncologie dirigée par le Dr James Wilson
 Unité des diagnostics dirigée par le Dr Gregory House, parfois par le Dr Eric Foreman puis par le Dr Robert Chase (saison 8, épisode 22)
 Unité de médecine interne dirigée par le Dr Kaufman (saison 7)
@@ -557,9 +608,43 @@
 Unité de Pédiatrie-Néonatologie
 Médecine légale
 Unité de Rhumatologie dirigée par le Dr Brustin (saison 2)
-Unité de Cardiologie dirigée par le Dr Nollo (saison 2)
-Autres services
-Clinique (centre de consultations publiques)
+Unité de Cardiologie dirigée par le Dr Nollo (saison 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Princeton-Plainsboro_Teaching_Hospital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Princeton-Plainsboro_Teaching_Hospital</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres services</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clinique (centre de consultations publiques)
 Pharmacie, située à côté des consultations
 Laboratoire d'analyses médicales
 Bibliothèque
@@ -570,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Princeton-Plainsboro_Teaching_Hospital</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Princeton-Plainsboro_Teaching_Hospital</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment présenté comme étant celui de l'hôpital est en réalité celui du Frist Campus Center de l'université de Princeton.
 </t>
